--- a/Team-Data/2011-12/3-15-2011-12.xlsx
+++ b/Team-Data/2011-12/3-15-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
         <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -792,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>11</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -938,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>20</v>
@@ -959,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.143</v>
+        <v>0.146</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J4" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M4" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.302</v>
+        <v>0.299</v>
       </c>
       <c r="O4" t="n">
         <v>15.8</v>
@@ -1069,46 +1136,46 @@
         <v>21.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U4" t="n">
         <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.2</v>
+        <v>-13.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1147,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>22</v>
@@ -1177,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>5</v>
@@ -1344,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1517,10 +1584,10 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.556</v>
+        <v>0.545</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1618,28 +1685,28 @@
         <v>0.754</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
         <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
         <v>21.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
         <v>19.6</v>
@@ -1648,22 +1715,22 @@
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="AC7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD7" t="n">
         <v>2</v>
       </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1672,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1693,13 +1760,13 @@
         <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>9</v>
@@ -1717,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -1758,49 +1825,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.545</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
         <v>20.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O8" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P8" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S8" t="n">
         <v>32.6</v>
@@ -1809,19 +1876,19 @@
         <v>43.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
         <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z8" t="n">
         <v>19.6</v>
@@ -1830,22 +1897,22 @@
         <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1896,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2042,7 +2109,7 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2245,7 +2312,7 @@
         <v>27</v>
       </c>
       <c r="AS10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2275,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -2403,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>9</v>
@@ -2430,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2448,7 +2515,7 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2621,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -2668,97 +2735,97 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.571</v>
+        <v>0.585</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T13" t="n">
         <v>42.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W13" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>10</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
         <v>11</v>
@@ -2809,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2821,7 +2888,7 @@
         <v>9</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2970,7 +3037,7 @@
         <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -3122,10 +3189,10 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3140,13 +3207,13 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>13</v>
@@ -3185,7 +3252,7 @@
         <v>21</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>12</v>
@@ -3507,7 +3574,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3525,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>7</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="n">
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H18" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I18" t="n">
         <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N18" t="n">
         <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P18" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U18" t="n">
         <v>19.3</v>
       </c>
       <c r="V18" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
@@ -3650,13 +3717,13 @@
         <v>22.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -3683,10 +3750,10 @@
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>3</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>20</v>
@@ -3728,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="BB18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-6</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3892,7 +3959,7 @@
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.227</v>
+        <v>0.233</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>34.7</v>
       </c>
       <c r="J20" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K20" t="n">
         <v>0.44</v>
@@ -3972,7 +4039,7 @@
         <v>12.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="O20" t="n">
         <v>15.2</v>
@@ -3981,34 +4048,34 @@
         <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
         <v>18.3</v>
@@ -4017,10 +4084,10 @@
         <v>88.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4029,16 +4096,16 @@
         <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>18</v>
@@ -4050,7 +4117,7 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4059,19 +4126,19 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4250,13 +4317,13 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
         <v>21</v>
       </c>
       <c r="AV21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4271,10 +4338,10 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.767</v>
+        <v>0.762</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4327,40 +4394,40 @@
         <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.347</v>
+        <v>0.343</v>
       </c>
       <c r="O22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.795</v>
       </c>
       <c r="R22" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V22" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
@@ -4372,7 +4439,7 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20.5</v>
@@ -4381,10 +4448,10 @@
         <v>102.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4438,7 +4505,7 @@
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
         <v>17</v>
@@ -4447,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4617,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -4748,25 +4815,25 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -4787,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>25</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -4852,40 +4919,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.488</v>
+        <v>0.476</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P25" t="n">
         <v>20.5</v>
@@ -4894,19 +4961,19 @@
         <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U25" t="n">
         <v>22.5</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W25" t="n">
         <v>6.8</v>
@@ -4918,25 +4985,25 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA25" t="n">
         <v>19.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
@@ -4945,22 +5012,22 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
         <v>10</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>11</v>
-      </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4981,10 +5048,10 @@
         <v>15</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>20</v>
@@ -5130,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,13 +5209,13 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT26" t="n">
         <v>21</v>
@@ -5172,10 +5239,10 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -5318,7 +5385,7 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5351,7 +5418,7 @@
         <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5366,7 +5433,7 @@
         <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5524,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -5762,70 +5829,70 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.488</v>
+        <v>0.476</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J30" t="n">
-        <v>82.7</v>
+        <v>82.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
         <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q30" t="n">
         <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>5.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
         <v>22</v>
@@ -5834,34 +5901,34 @@
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5879,25 +5946,25 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5909,13 +5976,13 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.238</v>
+        <v>0.22</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N31" t="n">
         <v>0.319</v>
@@ -5980,19 +6047,19 @@
         <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.72</v>
+        <v>0.717</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U31" t="n">
         <v>18.4</v>
@@ -6004,43 +6071,43 @@
         <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.1</v>
+        <v>-8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6052,25 +6119,25 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>18</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ31" t="n">
         <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6088,10 +6155,10 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2011-12</t>
+          <t>2012-03-15</t>
         </is>
       </c>
     </row>
